--- a/data/long_dif/P23_2-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_2-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>39,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>21,95%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22,26%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33,84%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24,99%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22,0%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,34; 49,28</t>
+          <t>29,22; 51,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,11; 38,15</t>
+          <t>19,13; 38,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,78; 36,54</t>
+          <t>5,68; 26,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,03; 29,94</t>
+          <t>11,81; 38,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,41; 39,28</t>
+          <t>20,23; 37,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,61; 32,23</t>
+          <t>14,44; 28,82</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15,15; 33,33</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12,0; 33,86</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26,55; 41,03</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 31,61</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11,67; 25,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14,69; 32,37</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>36,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>53,38%</t>
+          <t>53,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,95%</t>
+          <t>54,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>48,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>58,44%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47,19%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>55,2%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42,77%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>56,17%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>50,93%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44,7%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,17; 49,31</t>
+          <t>27,29; 48,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,82; 63,71</t>
+          <t>43,18; 63,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,07; 61,92</t>
+          <t>40,51; 67,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,76; 67,04</t>
+          <t>21,75; 50,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,19; 51,39</t>
+          <t>39,15; 58,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,81; 62,7</t>
+          <t>49,66; 66,84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>37,61; 58,42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>41,73; 68,16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35,81; 50,12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49,37; 63,24</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>42,68; 60,29</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>33,85; 55,68</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>19,61%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>30,55%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23,87%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23,38%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,84%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>31,16%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>33,3%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,18; 35,59</t>
+          <t>14,81; 34,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,12; 29,36</t>
+          <t>10,9; 28,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,85; 30,83</t>
+          <t>19,88; 45,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,56; 27,73</t>
+          <t>27,09; 59,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,94; 30,95</t>
+          <t>15,81; 33,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,56; 24,79</t>
+          <t>13,24; 27,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>21,36; 41,2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13,18; 36,84</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17,77; 30,06</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13,63; 24,87</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>23,42; 39,55</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23,42; 44,62</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,93; 37,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 34,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,09; 38,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,89; 43,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,81; 35,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,68; 35,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>44,8%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>30,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>36,22%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26,66%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28,21%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30,87%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17,48%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26,12%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,23; 60,74</t>
+          <t>17,71; 35,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,15; 63,45</t>
+          <t>18,49; 34,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,45; 45,02</t>
+          <t>8,73; 25,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,24; 47,49</t>
+          <t>10,77; 53,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,61; 49,53</t>
+          <t>22,79; 39,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,79; 53,57</t>
+          <t>29,05; 43,73</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,26; 26,86</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18,72; 36,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21,77; 34,41</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25,37; 36,48</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12,37; 23,1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17,74; 42,49</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>50,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>58,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>49,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>39,84%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>52,38%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>41,75%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>40,46%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>45,53%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>55,62%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>45,9%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,87; 39,69</t>
+          <t>33,18; 59,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,85; 34,17</t>
+          <t>41,06; 63,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,25; 43,68</t>
+          <t>43,59; 73,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,64; 29,97</t>
+          <t>28,9; 70,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,04; 37,26</t>
+          <t>27,32; 44,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,3; 28,65</t>
+          <t>33,03; 47,6</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>43,8; 62,7</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31,13; 53,03</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>33,4; 49,75</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>39,36; 53,24</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>46,98; 66,64</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>34,83; 59,16</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>28,97%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>23,95%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28,31%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>31,6%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31,33%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23,59%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26,9%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>27,98%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,86; 48,71</t>
+          <t>18,69; 42,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,93; 41,33</t>
+          <t>15,66; 33,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,15; 34,5</t>
+          <t>15,34; 38,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,32; 38,98</t>
+          <t>11,24; 43,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,71; 39,39</t>
+          <t>25,63; 43,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,81; 36,9</t>
+          <t>18,25; 31,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21,01; 37,05</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22,75; 42,85</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24,4; 39,38</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18,46; 30,27</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>19,75; 34,2</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>19,01; 37,92</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24,89; 42,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,46; 47,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,33; 39,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>33,07; 44,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,29; 38,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,62; 44,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>31,98%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>36,28%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>25,8%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>34,35%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>32,11%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>31,37%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>24,49%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,36; 38,63</t>
+          <t>30,92; 49,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>20,8; 38,81</t>
+          <t>25,45; 41,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>32,09; 45,73</t>
+          <t>18,54; 36,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,99; 33,5</t>
+          <t>15,7; 32,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,82; 39,63</t>
+          <t>23,81; 35,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,62; 34,15</t>
+          <t>26,56; 37,16</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>29,89; 43,13</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>18,14; 35,12</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>29,32; 39,53</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>27,32; 37,17</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>26,57; 37,61</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>18,33; 31,16</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>32,86%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>40,01%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>44,41%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>39,41%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>34,66%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>35,82%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>33,06%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>39,7%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>33,08%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>40,38%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>25,33; 40,71</t>
+          <t>25,38; 42,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>27,61; 42,18</t>
+          <t>32,31; 48,5</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21,71; 33,93</t>
+          <t>24,29; 39,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>28,28; 39,32</t>
+          <t>34,59; 55,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>25,44; 34,97</t>
+          <t>26,71; 39,33</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>29,44; 38,27</t>
+          <t>34,02; 45,84</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>28,62; 41,63</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>26,38; 44,63</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>27,9; 38,46</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>34,89; 44,49</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>28,31; 38,03</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>32,59; 47,59</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>27,74%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>39,43%</t>
+          <t>28,61%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>29,05%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>38,38%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>32,59%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>28,19%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>35,55%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>35,13%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>31,84; 46,82</t>
+          <t>18,88; 39,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>33,83; 48,21</t>
+          <t>20,42; 38,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>30,08; 43,09</t>
+          <t>34,46; 51,25</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>32,44; 44,46</t>
+          <t>21,73; 41,74</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>33,19; 43,42</t>
+          <t>31,22; 43,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>34,89; 43,71</t>
+          <t>23,24; 34,02</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>23,92; 35,65</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>29,59; 48,47</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>27,37; 39,0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>23,79; 34,02</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>30,49; 41,11</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>29,16; 42,1</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>22,88; 35,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>19,63; 31,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>29,62; 42,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>23,09; 33,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>28,3; 37,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,4; 31,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>31,41%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>33,98%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>33,61%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>32,27%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>27,48%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>29,18%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>33,79%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>29,52%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>29,41%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>22,44; 37,72</t>
+          <t>25,2; 40,11</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>22,03; 35,22</t>
+          <t>27,31; 42,09</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>20,08; 33,94</t>
+          <t>19,81; 34,25</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>25,51; 39,54</t>
+          <t>21,17; 41,69</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>22,85; 33,54</t>
+          <t>21,26; 33,24</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>25,16; 34,64</t>
+          <t>28,24; 39,36</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>26,11; 38,99</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>19,33; 35,81</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>24,7; 34,6</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>29,79; 39,52</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>24,7; 34,4</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>23,07; 35,84</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>43,23%</t>
+          <t>39,79%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>44,97%</t>
+          <t>40,91%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>38,32%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>37,92%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>32,4%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>43,63%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>37,66%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>39,35%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>35,34%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>35,77%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>35,06; 52,16</t>
+          <t>32,4; 47,17</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>37,65; 52,77</t>
+          <t>33,6; 47,62</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>32,62; 49,62</t>
+          <t>30,17; 50,5</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>33,39; 47,14</t>
+          <t>19,62; 37,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>35,62; 47,95</t>
+          <t>29,26; 41,74</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>37,08; 47,34</t>
+          <t>32,18; 43,63</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>26,44; 38,92</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>35,23; 53,39</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>32,74; 42,71</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>35,39; 43,97</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>30,5; 42,17</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>29,34; 42,61</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>37,14%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>28,47%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>35,33%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>28,89%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>33,16%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>26,86%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>35,14%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>34,83%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>20,68; 35,53</t>
+          <t>22,94; 36,1</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>21,45; 33,66</t>
+          <t>20,09; 31,48</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>25,12; 40,75</t>
+          <t>26,64; 42,93</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>22,0; 34,06</t>
+          <t>29,48; 52,42</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>25,15; 35,94</t>
+          <t>30,93; 44,14</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>23,45; 32,21</t>
+          <t>23,46; 34,61</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>28,75; 41,46</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>21,0; 38,07</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>28,82; 38,02</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>22,95; 30,56</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>29,81; 40,21</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>27,88; 42,73</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>36,11; 65,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>16,63; 36,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>26,07; 45,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>25,71; 40,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>32,48; 50,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>23,72; 36,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>30,03%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>24,31%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>23,39%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>15,14; 33,54</t>
+          <t>21,34; 36,47</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>29,85; 50,42</t>
+          <t>22,07; 34,64</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>30,06; 48,32</t>
+          <t>16,82; 30,9</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>32,03; 48,48</t>
+          <t>15,3; 34,66</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>25,31; 39,85</t>
+          <t>20,54; 35,44</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>33,87; 46,32</t>
+          <t>25,28; 39,0</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 34,21</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>15,66; 31,85</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>23,1; 33,82</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>25,04; 34,93</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>19,29; 30,11</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>17,85; 30,7</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>43,11%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>39,91%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>38,37%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>39,37%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>27,68%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>35,5%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>41,16%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>42,07%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>33,74%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>36,81%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>16,95; 37,79</t>
+          <t>34,68; 52,72</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>26,48; 45,23</t>
+          <t>38,36; 51,87</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>19,3; 34,63</t>
+          <t>30,54; 50,33</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>20,66; 35,49</t>
+          <t>27,96; 50,06</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>20,81; 33,5</t>
+          <t>31,65; 47,85</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>25,26; 37,23</t>
+          <t>32,24; 47,02</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>20,72; 36,47</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>27,23; 44,74</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>35,41; 46,97</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>37,28; 47,65</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>27,42; 40,24</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>30,24; 44,44</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>28,7%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>46,57%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>41,7%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>30,95%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>27,9%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>41,95%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>39,79%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>31,74; 40,49</t>
+          <t>21,03; 37,25</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>25,74; 32,7</t>
+          <t>21,58; 34,33</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>25,96; 32,24</t>
+          <t>28,68; 46,95</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>29,02; 34,75</t>
+          <t>27,05; 49,15</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>29,69; 35,3</t>
+          <t>25,85; 41,4</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>28,54; 32,71</t>
+          <t>21,85; 35,65</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>37,64; 56,47</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>32,2; 51,16</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>25,58; 36,17</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>23,33; 32,7</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>35,45; 48,58</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>31,66; 47,03</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>33,3; 41,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>40,97; 48,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>35,32; 42,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>39,11; 44,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>35,44; 40,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>41,15; 46,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>44,35%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>32,22%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>20,45%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>24,18%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>38,78%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>29,21%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>24,22%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>28,2%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>23,64; 31,16</t>
+          <t>34,0; 58,67</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>22,68; 29,9</t>
+          <t>17,79; 36,76</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>29,33; 35,4</t>
+          <t>18,55; 42,14</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>23,69; 28,9</t>
+          <t>22,46; 48,81</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>27,4; 32,36</t>
+          <t>25,29; 45,21</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>23,96; 28,19</t>
+          <t>25,51; 40,6</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>12,8; 31,02</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>14,14; 38,12</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>31,61; 46,82</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>24,2; 35,57</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>17,86; 31,71</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>19,46; 37,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>26,68%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>40,08%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>30,3%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>21,45%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>37,98%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>39,11%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>32,54%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>36,75%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>33,15%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>39,53%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>31,57%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>30,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>18,12; 35,91</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>31,08; 50,36</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>20,16; 41,59</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>10,16; 33,92</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>29,0; 47,26</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>31,45; 47,29</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>23,88; 43,43</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>23,87; 51,76</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>27,05; 39,79</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>32,64; 45,33</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>24,6; 39,1</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>21,58; 40,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>28,98%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>34,74%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>40,52%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>44,34%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>27,39%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>28,67%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>47,02%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>39,07%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>28,07%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>31,26%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>44,21%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>41,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>19,15; 39,08</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>26,14; 44,0</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>28,48; 52,64</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>32,55; 57,61</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>20,08; 36,22</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>21,95; 37,94</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>36,4; 57,94</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>26,18; 54,72</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>22,86; 34,04</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>26,13; 37,33</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>36,84; 52,94</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>31,8; 52,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>35,0%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>29,25%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>22,49%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>26,9%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>29,54%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>31,51%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>26,7%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>24,79%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>32,18%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>30,42%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>25,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>30,86; 39,32</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>25,94; 32,74</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>18,86; 25,95</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>22,43; 32,92</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>26,38; 32,71</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>28,78; 34,34</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>23,47; 29,67</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>20,78; 29,29</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>29,59; 34,86</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>28,32; 32,6</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>22,27; 27,19</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>22,59; 29,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>37,34%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>44,92%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>42,03%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>36,64%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>37,9%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>41,87%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>37,27%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>40,76%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>37,63%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>43,34%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>39,6%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>38,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>33,47; 41,7</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>41,11; 48,62</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>37,27; 47,89</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>30,95; 42,76</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>34,43; 41,12</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>39,09; 44,72</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>33,98; 40,73</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>36,13; 45,26</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>35,27; 40,21</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>40,95; 45,66</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>36,36; 42,77</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>34,95; 42,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>27,66%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>25,83%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>35,47%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>36,45%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>32,57%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>26,61%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>36,03%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>34,45%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>30,19%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>26,24%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>35,76%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>35,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>23,76; 32,1</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>22,83; 29,63</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>31,04; 40,01</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>31,3; 42,06</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>29,36; 35,41</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 29,33</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>32,68; 39,82</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>30,0; 39,14</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>27,73; 32,71</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>24,22; 28,65</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>33,14; 38,97</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>32,08; 38,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_2-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_2-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
